--- a/data/USDA GFS IMPACT V9.xlsx
+++ b/data/USDA GFS IMPACT V9.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33160" yWindow="460" windowWidth="37020" windowHeight="12000"/>
+    <workbookView xWindow="-37020" yWindow="-2960" windowWidth="37020" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="1" r:id="rId1"/>
@@ -1235,12 +1235,6 @@
     <t>vit_d_µg</t>
   </si>
   <si>
-    <t>folate_μg</t>
-  </si>
-  <si>
-    <t>folate_μg_cr</t>
-  </si>
-  <si>
     <t>totalfiber_g</t>
   </si>
   <si>
@@ -1314,6 +1308,12 @@
   </si>
   <si>
     <t>potassium_g</t>
+  </si>
+  <si>
+    <t>folate_µg</t>
+  </si>
+  <si>
+    <t>folate_µg_cr</t>
   </si>
 </sst>
 </file>
@@ -2223,10 +2223,10 @@
   <dimension ref="A1:BM95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="Q9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AW5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AL3" sqref="AL3"/>
+      <selection pane="bottomRight" activeCell="BI3" sqref="BI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2592,58 +2592,58 @@
         <v>314</v>
       </c>
       <c r="K3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L3" t="s">
+        <v>340</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="N3" t="s">
         <v>341</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
+        <v>337</v>
+      </c>
+      <c r="P3" t="s">
         <v>342</v>
       </c>
-      <c r="M3" s="57" t="s">
-        <v>340</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="Q3" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="O3" t="s">
-        <v>339</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>344</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="S3" t="s">
         <v>345</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>346</v>
-      </c>
-      <c r="S3" t="s">
-        <v>347</v>
-      </c>
-      <c r="T3" t="s">
-        <v>348</v>
       </c>
       <c r="U3" t="s">
         <v>315</v>
       </c>
       <c r="V3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="W3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="X3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Y3" s="46" t="s">
         <v>255</v>
       </c>
       <c r="Z3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB3" t="s">
         <v>350</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>351</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>352</v>
       </c>
       <c r="AC3" t="s">
         <v>325</v>
@@ -2652,7 +2652,7 @@
         <v>326</v>
       </c>
       <c r="AE3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="AF3" t="s">
         <v>327</v>
@@ -2694,10 +2694,10 @@
         <v>267</v>
       </c>
       <c r="AS3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AT3" s="42" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AU3" s="62" t="s">
         <v>316</v>
@@ -2706,28 +2706,28 @@
         <v>278</v>
       </c>
       <c r="AW3" t="s">
+        <v>353</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>354</v>
+      </c>
+      <c r="AY3" t="s">
         <v>355</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AZ3" t="s">
         <v>356</v>
       </c>
-      <c r="AY3" t="s">
-        <v>357</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>358</v>
-      </c>
       <c r="BA3" s="65" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="BB3" s="65" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="BC3" s="65" t="s">
         <v>317</v>
       </c>
       <c r="BD3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BE3" s="64" t="s">
         <v>318</v>
@@ -2742,7 +2742,7 @@
         <v>321</v>
       </c>
       <c r="BI3" s="65" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="BJ3" s="66" t="s">
         <v>322</v>
